--- a/medicine/Psychotrope/Furmint/Furmint.xlsx
+++ b/medicine/Psychotrope/Furmint/Furmint.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le furmint est un cépage blanc originaire, selon Goethe, de Croatie. Il est cultivé de longue date en Hongrie. Il participe à hauteur de 50 à 70 % dans les vins de Tokay, en assemblage avec le hárslevelü et le muscat blanc à petits grains.
@@ -513,7 +525,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un cépage très vigoureux qui a besoin d'un climat chaud et sec et d'un sol léger. Il est sensible à l'oïdium, mais résiste bien à la pourriture grise : cette faculté est utilisée pour le faire surmûrir, donnant tout le sucre nécessaire à l'élaboration du précieux élixir hongrois. Il donne un vin au potentiel alcoolique élevé.
 </t>
@@ -544,9 +558,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cépage est aussi connu sous le nom de[1]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cépage est aussi connu sous le nom de:
 Allgemeiner
 Alte Sestrebe
 Arany Furmint
